--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3327,28 +3327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2536.411265014337</v>
+        <v>2947.359342304921</v>
       </c>
       <c r="AB2" t="n">
-        <v>3470.429791360422</v>
+        <v>4032.707080459068</v>
       </c>
       <c r="AC2" t="n">
-        <v>3139.216842851657</v>
+        <v>3647.831176639838</v>
       </c>
       <c r="AD2" t="n">
-        <v>2536411.265014337</v>
+        <v>2947359.342304922</v>
       </c>
       <c r="AE2" t="n">
-        <v>3470429.791360422</v>
+        <v>4032707.080459069</v>
       </c>
       <c r="AF2" t="n">
         <v>1.926967473390145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.44675925925927</v>
       </c>
       <c r="AH2" t="n">
-        <v>3139216.842851656</v>
+        <v>3647831.176639838</v>
       </c>
     </row>
     <row r="3">
@@ -3433,28 +3433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1560.582253286476</v>
+        <v>1854.169560559365</v>
       </c>
       <c r="AB3" t="n">
-        <v>2135.257486976521</v>
+        <v>2536.956592945167</v>
       </c>
       <c r="AC3" t="n">
-        <v>1931.471509272186</v>
+        <v>2294.833016355421</v>
       </c>
       <c r="AD3" t="n">
-        <v>1560582.253286476</v>
+        <v>1854169.560559365</v>
       </c>
       <c r="AE3" t="n">
-        <v>2135257.486976521</v>
+        <v>2536956.592945167</v>
       </c>
       <c r="AF3" t="n">
         <v>2.709552222787367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.92824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1931471.509272187</v>
+        <v>2294833.01635542</v>
       </c>
     </row>
     <row r="4">
@@ -3539,28 +3539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1337.64863662866</v>
+        <v>1601.870380090504</v>
       </c>
       <c r="AB4" t="n">
-        <v>1830.22987752826</v>
+        <v>2191.749723573391</v>
       </c>
       <c r="AC4" t="n">
-        <v>1655.555306760728</v>
+        <v>1982.572206095604</v>
       </c>
       <c r="AD4" t="n">
-        <v>1337648.63662866</v>
+        <v>1601870.380090504</v>
       </c>
       <c r="AE4" t="n">
-        <v>1830229.87752826</v>
+        <v>2191749.723573391</v>
       </c>
       <c r="AF4" t="n">
         <v>3.018599293290966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.99074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1655555.306760728</v>
+        <v>1982572.206095604</v>
       </c>
     </row>
     <row r="5">
@@ -3645,28 +3645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1241.501079405721</v>
+        <v>1486.112625937945</v>
       </c>
       <c r="AB5" t="n">
-        <v>1698.676548004977</v>
+        <v>2033.364857470172</v>
       </c>
       <c r="AC5" t="n">
-        <v>1536.55724237089</v>
+        <v>1839.303369318719</v>
       </c>
       <c r="AD5" t="n">
-        <v>1241501.079405721</v>
+        <v>1486112.625937945</v>
       </c>
       <c r="AE5" t="n">
-        <v>1698676.548004977</v>
+        <v>2033364.857470172</v>
       </c>
       <c r="AF5" t="n">
         <v>3.182005050182952e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.3287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1536557.24237089</v>
+        <v>1839303.369318719</v>
       </c>
     </row>
     <row r="6">
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1172.056879194998</v>
+        <v>1416.701580116145</v>
       </c>
       <c r="AB6" t="n">
-        <v>1603.659929614774</v>
+        <v>1938.393602377563</v>
       </c>
       <c r="AC6" t="n">
-        <v>1450.608876683187</v>
+        <v>1753.396037519155</v>
       </c>
       <c r="AD6" t="n">
-        <v>1172056.879194998</v>
+        <v>1416701.580116145</v>
       </c>
       <c r="AE6" t="n">
-        <v>1603659.929614774</v>
+        <v>1938393.602377563</v>
       </c>
       <c r="AF6" t="n">
         <v>3.288456103427939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.73148148148149</v>
       </c>
       <c r="AH6" t="n">
-        <v>1450608.876683187</v>
+        <v>1753396.037519155</v>
       </c>
     </row>
     <row r="7">
@@ -3857,28 +3857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1115.697341650619</v>
+        <v>1350.486201493713</v>
       </c>
       <c r="AB7" t="n">
-        <v>1526.546323939241</v>
+        <v>1847.794800130017</v>
       </c>
       <c r="AC7" t="n">
-        <v>1380.854885303701</v>
+        <v>1671.443857801897</v>
       </c>
       <c r="AD7" t="n">
-        <v>1115697.341650619</v>
+        <v>1350486.201493714</v>
       </c>
       <c r="AE7" t="n">
-        <v>1526546.323939241</v>
+        <v>1847794.800130017</v>
       </c>
       <c r="AF7" t="n">
         <v>3.382024545133724e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.41203703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>1380854.885303701</v>
+        <v>1671443.857801897</v>
       </c>
     </row>
     <row r="8">
@@ -3963,28 +3963,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1098.33874857768</v>
+        <v>1323.407417987987</v>
       </c>
       <c r="AB8" t="n">
-        <v>1502.795531089767</v>
+        <v>1810.744413905867</v>
       </c>
       <c r="AC8" t="n">
-        <v>1359.370834789333</v>
+        <v>1637.929508438437</v>
       </c>
       <c r="AD8" t="n">
-        <v>1098338.74857768</v>
+        <v>1323407.417987987</v>
       </c>
       <c r="AE8" t="n">
-        <v>1502795.531089767</v>
+        <v>1810744.413905867</v>
       </c>
       <c r="AF8" t="n">
         <v>3.408196587523893e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.05324074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>1359370.834789333</v>
+        <v>1637929.508438437</v>
       </c>
     </row>
     <row r="9">
@@ -4069,28 +4069,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1060.525471698097</v>
+        <v>1285.559975689624</v>
       </c>
       <c r="AB9" t="n">
-        <v>1451.057737459082</v>
+        <v>1758.959873641935</v>
       </c>
       <c r="AC9" t="n">
-        <v>1312.570823568312</v>
+        <v>1591.087212017235</v>
       </c>
       <c r="AD9" t="n">
-        <v>1060525.471698097</v>
+        <v>1285559.975689624</v>
       </c>
       <c r="AE9" t="n">
-        <v>1451057.737459082</v>
+        <v>1758959.873641934</v>
       </c>
       <c r="AF9" t="n">
         <v>3.451048221696397e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.47453703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>1312570.823568312</v>
+        <v>1591087.212017235</v>
       </c>
     </row>
     <row r="10">
@@ -4175,28 +4175,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1039.268100461619</v>
+        <v>1264.302604453145</v>
       </c>
       <c r="AB10" t="n">
-        <v>1421.972464324301</v>
+        <v>1729.874600507153</v>
       </c>
       <c r="AC10" t="n">
-        <v>1286.261408080077</v>
+        <v>1564.777796529</v>
       </c>
       <c r="AD10" t="n">
-        <v>1039268.100461619</v>
+        <v>1264302.604453146</v>
       </c>
       <c r="AE10" t="n">
-        <v>1421972.464324301</v>
+        <v>1729874.600507153</v>
       </c>
       <c r="AF10" t="n">
         <v>3.473694496717942e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.18518518518518</v>
       </c>
       <c r="AH10" t="n">
-        <v>1286261.408080077</v>
+        <v>1564777.796529</v>
       </c>
     </row>
     <row r="11">
@@ -4281,28 +4281,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1039.500879064147</v>
+        <v>1264.535383055673</v>
       </c>
       <c r="AB11" t="n">
-        <v>1422.290962277746</v>
+        <v>1730.193098460598</v>
       </c>
       <c r="AC11" t="n">
-        <v>1286.54950903586</v>
+        <v>1565.065897484784</v>
       </c>
       <c r="AD11" t="n">
-        <v>1039500.879064147</v>
+        <v>1264535.383055673</v>
       </c>
       <c r="AE11" t="n">
-        <v>1422290.962277746</v>
+        <v>1730193.098460598</v>
       </c>
       <c r="AF11" t="n">
         <v>3.47477934821598e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.17361111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1286549.50903586</v>
+        <v>1565065.897484784</v>
       </c>
     </row>
   </sheetData>
@@ -4578,28 +4578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1967.408739383895</v>
+        <v>2315.807023561305</v>
       </c>
       <c r="AB2" t="n">
-        <v>2691.895433172876</v>
+        <v>3168.58933583211</v>
       </c>
       <c r="AC2" t="n">
-        <v>2434.984711129825</v>
+        <v>2866.183616763236</v>
       </c>
       <c r="AD2" t="n">
-        <v>1967408.739383895</v>
+        <v>2315807.023561304</v>
       </c>
       <c r="AE2" t="n">
-        <v>2691895.433172876</v>
+        <v>3168589.33583211</v>
       </c>
       <c r="AF2" t="n">
         <v>2.412781281906122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.18055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2434984.711129825</v>
+        <v>2866183.616763236</v>
       </c>
     </row>
     <row r="3">
@@ -4684,28 +4684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1318.927572795945</v>
+        <v>1589.914618161411</v>
       </c>
       <c r="AB3" t="n">
-        <v>1804.614892077293</v>
+        <v>2175.391322651016</v>
       </c>
       <c r="AC3" t="n">
-        <v>1632.384979570344</v>
+        <v>1967.775027998099</v>
       </c>
       <c r="AD3" t="n">
-        <v>1318927.572795945</v>
+        <v>1589914.618161411</v>
       </c>
       <c r="AE3" t="n">
-        <v>1804614.892077293</v>
+        <v>2175391.322651016</v>
       </c>
       <c r="AF3" t="n">
         <v>3.180936296753179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.99305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1632384.979570344</v>
+        <v>1967775.027998099</v>
       </c>
     </row>
     <row r="4">
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1162.081193106661</v>
+        <v>1403.993436632879</v>
       </c>
       <c r="AB4" t="n">
-        <v>1590.010755812502</v>
+        <v>1921.005759820036</v>
       </c>
       <c r="AC4" t="n">
-        <v>1438.262360871868</v>
+        <v>1737.667666251328</v>
       </c>
       <c r="AD4" t="n">
-        <v>1162081.193106661</v>
+        <v>1403993.436632879</v>
       </c>
       <c r="AE4" t="n">
-        <v>1590010.755812502</v>
+        <v>1921005.759820036</v>
       </c>
       <c r="AF4" t="n">
         <v>3.471461218343006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.4675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1438262.360871868</v>
+        <v>1737667.666251329</v>
       </c>
     </row>
     <row r="5">
@@ -4896,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1081.038626255144</v>
+        <v>1313.270320631253</v>
       </c>
       <c r="AB5" t="n">
-        <v>1479.124740500542</v>
+        <v>1796.874390085211</v>
       </c>
       <c r="AC5" t="n">
-        <v>1337.959151231781</v>
+        <v>1625.383220224523</v>
       </c>
       <c r="AD5" t="n">
-        <v>1081038.626255144</v>
+        <v>1313270.320631253</v>
       </c>
       <c r="AE5" t="n">
-        <v>1479124.740500542</v>
+        <v>1796874.390085211</v>
       </c>
       <c r="AF5" t="n">
         <v>3.625478005171525e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.37268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>1337959.151231781</v>
+        <v>1625383.220224523</v>
       </c>
     </row>
     <row r="6">
@@ -5002,28 +5002,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1010.987978264619</v>
+        <v>1243.252827029653</v>
       </c>
       <c r="AB6" t="n">
-        <v>1383.278353503428</v>
+        <v>1701.07336638569</v>
       </c>
       <c r="AC6" t="n">
-        <v>1251.260208888422</v>
+        <v>1538.725311769304</v>
       </c>
       <c r="AD6" t="n">
-        <v>1010987.978264619</v>
+        <v>1243252.827029652</v>
       </c>
       <c r="AE6" t="n">
-        <v>1383278.353503427</v>
+        <v>1701073.36638569</v>
       </c>
       <c r="AF6" t="n">
         <v>3.742251811755384e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.8912037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1251260.208888422</v>
+        <v>1538725.311769304</v>
       </c>
     </row>
     <row r="7">
@@ -5108,28 +5108,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>984.8240668683594</v>
+        <v>1207.375212094361</v>
       </c>
       <c r="AB7" t="n">
-        <v>1347.479735660758</v>
+        <v>1651.984030822562</v>
       </c>
       <c r="AC7" t="n">
-        <v>1218.878160888981</v>
+        <v>1494.320993495006</v>
       </c>
       <c r="AD7" t="n">
-        <v>984824.0668683595</v>
+        <v>1207375.212094361</v>
       </c>
       <c r="AE7" t="n">
-        <v>1347479.735660758</v>
+        <v>1651984.030822562</v>
       </c>
       <c r="AF7" t="n">
         <v>3.779198035185347e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.43981481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>1218878.160888982</v>
+        <v>1494320.993495006</v>
       </c>
     </row>
     <row r="8">
@@ -5214,28 +5214,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>974.2180408354003</v>
+        <v>1196.769186061402</v>
       </c>
       <c r="AB8" t="n">
-        <v>1332.968102937618</v>
+        <v>1637.472398099422</v>
       </c>
       <c r="AC8" t="n">
-        <v>1205.751498025734</v>
+        <v>1481.194330631758</v>
       </c>
       <c r="AD8" t="n">
-        <v>974218.0408354003</v>
+        <v>1196769.186061402</v>
       </c>
       <c r="AE8" t="n">
-        <v>1332968.102937618</v>
+        <v>1637472.398099422</v>
       </c>
       <c r="AF8" t="n">
         <v>3.800416147436289e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.18518518518518</v>
       </c>
       <c r="AH8" t="n">
-        <v>1205751.498025734</v>
+        <v>1481194.330631758</v>
       </c>
     </row>
     <row r="9">
@@ -5320,28 +5320,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>976.8784321435173</v>
+        <v>1199.429577369519</v>
       </c>
       <c r="AB9" t="n">
-        <v>1336.608167693565</v>
+        <v>1641.112462855369</v>
       </c>
       <c r="AC9" t="n">
-        <v>1209.044160110236</v>
+        <v>1484.48699271626</v>
       </c>
       <c r="AD9" t="n">
-        <v>976878.4321435173</v>
+        <v>1199429.577369519</v>
       </c>
       <c r="AE9" t="n">
-        <v>1336608.167693565</v>
+        <v>1641112.462855369</v>
       </c>
       <c r="AF9" t="n">
         <v>3.800119390621591e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.19675925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>1209044.160110236</v>
+        <v>1484486.99271626</v>
       </c>
     </row>
   </sheetData>
@@ -5617,28 +5617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1037.15728803117</v>
+        <v>1289.653809777301</v>
       </c>
       <c r="AB2" t="n">
-        <v>1419.084357634488</v>
+        <v>1764.561238047907</v>
       </c>
       <c r="AC2" t="n">
-        <v>1283.648938239257</v>
+        <v>1596.153990065866</v>
       </c>
       <c r="AD2" t="n">
-        <v>1037157.28803117</v>
+        <v>1289653.809777301</v>
       </c>
       <c r="AE2" t="n">
-        <v>1419084.357634488</v>
+        <v>1764561.238047907</v>
       </c>
       <c r="AF2" t="n">
         <v>4.508448896336222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.1712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1283648.938239257</v>
+        <v>1596153.990065866</v>
       </c>
     </row>
     <row r="3">
@@ -5723,28 +5723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>830.2370534805723</v>
+        <v>1054.734449815228</v>
       </c>
       <c r="AB3" t="n">
-        <v>1135.966964045882</v>
+        <v>1443.134205837086</v>
       </c>
       <c r="AC3" t="n">
-        <v>1027.55187133699</v>
+        <v>1305.403502683573</v>
       </c>
       <c r="AD3" t="n">
-        <v>830237.0534805723</v>
+        <v>1054734.449815228</v>
       </c>
       <c r="AE3" t="n">
-        <v>1135966.964045882</v>
+        <v>1443134.205837086</v>
       </c>
       <c r="AF3" t="n">
         <v>5.141358989919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.62037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1027551.87133699</v>
+        <v>1305403.502683573</v>
       </c>
     </row>
     <row r="4">
@@ -5829,28 +5829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>832.1486600029846</v>
+        <v>1056.64605633764</v>
       </c>
       <c r="AB4" t="n">
-        <v>1138.582508423974</v>
+        <v>1445.749750215178</v>
       </c>
       <c r="AC4" t="n">
-        <v>1029.917791830576</v>
+        <v>1307.769423177159</v>
       </c>
       <c r="AD4" t="n">
-        <v>832148.6600029846</v>
+        <v>1056646.05633764</v>
       </c>
       <c r="AE4" t="n">
-        <v>1138582.508423974</v>
+        <v>1445749.750215178</v>
       </c>
       <c r="AF4" t="n">
         <v>5.144051343065785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.59722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1029917.791830576</v>
+        <v>1307769.423177159</v>
       </c>
     </row>
   </sheetData>
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1308.055470044546</v>
+        <v>1592.498408480132</v>
       </c>
       <c r="AB2" t="n">
-        <v>1789.739201449507</v>
+        <v>2178.926578553875</v>
       </c>
       <c r="AC2" t="n">
-        <v>1618.929003977912</v>
+        <v>1970.972884039352</v>
       </c>
       <c r="AD2" t="n">
-        <v>1308055.470044546</v>
+        <v>1592498.408480132</v>
       </c>
       <c r="AE2" t="n">
-        <v>1789739.201449507</v>
+        <v>2178926.578553875</v>
       </c>
       <c r="AF2" t="n">
         <v>3.543277724612742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.58796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1618929.003977912</v>
+        <v>1970972.884039352</v>
       </c>
     </row>
     <row r="3">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>990.323782868551</v>
+        <v>1227.353870661742</v>
       </c>
       <c r="AB3" t="n">
-        <v>1355.004689722566</v>
+        <v>1679.319712870664</v>
       </c>
       <c r="AC3" t="n">
-        <v>1225.68494389647</v>
+        <v>1519.047796414307</v>
       </c>
       <c r="AD3" t="n">
-        <v>990323.782868551</v>
+        <v>1227353.870661742</v>
       </c>
       <c r="AE3" t="n">
-        <v>1355004.689722566</v>
+        <v>1679319.712870664</v>
       </c>
       <c r="AF3" t="n">
         <v>4.255305086766648e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.78472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1225684.94389647</v>
+        <v>1519047.796414307</v>
       </c>
     </row>
     <row r="4">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>884.2637480612167</v>
+        <v>1111.777100307148</v>
       </c>
       <c r="AB4" t="n">
-        <v>1209.888671060666</v>
+        <v>1521.182476784262</v>
       </c>
       <c r="AC4" t="n">
-        <v>1094.41859438405</v>
+        <v>1376.002956192987</v>
       </c>
       <c r="AD4" t="n">
-        <v>884263.7480612167</v>
+        <v>1111777.100307148</v>
       </c>
       <c r="AE4" t="n">
-        <v>1209888.671060666</v>
+        <v>1521182.476784262</v>
       </c>
       <c r="AF4" t="n">
         <v>4.513751290510674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.99537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1094418.59438405</v>
+        <v>1376002.956192987</v>
       </c>
     </row>
     <row r="5">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>877.1413224502625</v>
+        <v>1104.654674696194</v>
       </c>
       <c r="AB5" t="n">
-        <v>1200.143454120517</v>
+        <v>1511.437259844113</v>
       </c>
       <c r="AC5" t="n">
-        <v>1085.603447271171</v>
+        <v>1367.187809080108</v>
       </c>
       <c r="AD5" t="n">
-        <v>877141.3224502625</v>
+        <v>1104654.674696194</v>
       </c>
       <c r="AE5" t="n">
-        <v>1200143.454120517</v>
+        <v>1511437.259844113</v>
       </c>
       <c r="AF5" t="n">
         <v>4.535811584098818e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.76388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1085603.447271171</v>
+        <v>1367187.809080108</v>
       </c>
     </row>
   </sheetData>
@@ -6741,28 +6741,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>848.0272982846105</v>
+        <v>1079.206892837555</v>
       </c>
       <c r="AB2" t="n">
-        <v>1160.308361836976</v>
+        <v>1476.618482028221</v>
       </c>
       <c r="AC2" t="n">
-        <v>1049.570160286268</v>
+        <v>1335.692086550503</v>
       </c>
       <c r="AD2" t="n">
-        <v>848027.2982846105</v>
+        <v>1079206.892837555</v>
       </c>
       <c r="AE2" t="n">
-        <v>1160308.361836976</v>
+        <v>1476618.482028221</v>
       </c>
       <c r="AF2" t="n">
         <v>5.551176320760089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.45601851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>1049570.160286268</v>
+        <v>1335692.086550503</v>
       </c>
     </row>
     <row r="3">
@@ -6847,28 +6847,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>799.456722978818</v>
+        <v>1030.669471920686</v>
       </c>
       <c r="AB3" t="n">
-        <v>1093.851957921038</v>
+        <v>1410.207441409877</v>
       </c>
       <c r="AC3" t="n">
-        <v>989.4562622879184</v>
+        <v>1275.619222440293</v>
       </c>
       <c r="AD3" t="n">
-        <v>799456.722978818</v>
+        <v>1030669.471920686</v>
       </c>
       <c r="AE3" t="n">
-        <v>1093851.957921038</v>
+        <v>1410207.441409877</v>
       </c>
       <c r="AF3" t="n">
         <v>5.740943907146214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.82407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>989456.2622879185</v>
+        <v>1275619.222440293</v>
       </c>
     </row>
   </sheetData>
@@ -7144,28 +7144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2093.79290200513</v>
+        <v>2462.663861722988</v>
       </c>
       <c r="AB2" t="n">
-        <v>2864.819820146992</v>
+        <v>3369.52534067138</v>
       </c>
       <c r="AC2" t="n">
-        <v>2591.405437312033</v>
+        <v>3047.942571316094</v>
       </c>
       <c r="AD2" t="n">
-        <v>2093792.902005129</v>
+        <v>2462663.861722988</v>
       </c>
       <c r="AE2" t="n">
-        <v>2864819.820146992</v>
+        <v>3369525.34067138</v>
       </c>
       <c r="AF2" t="n">
         <v>2.277609030989389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.5763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2591405.437312033</v>
+        <v>3047942.571316094</v>
       </c>
     </row>
     <row r="3">
@@ -7250,28 +7250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1378.022027804607</v>
+        <v>1659.478463814241</v>
       </c>
       <c r="AB3" t="n">
-        <v>1885.470532483503</v>
+        <v>2270.571645213493</v>
       </c>
       <c r="AC3" t="n">
-        <v>1705.523871137789</v>
+        <v>2053.871474161636</v>
       </c>
       <c r="AD3" t="n">
-        <v>1378022.027804608</v>
+        <v>1659478.463814241</v>
       </c>
       <c r="AE3" t="n">
-        <v>1885470.532483503</v>
+        <v>2270571.645213493</v>
       </c>
       <c r="AF3" t="n">
         <v>3.049505645369835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.9537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1705523.871137789</v>
+        <v>2053871.474161636</v>
       </c>
     </row>
     <row r="4">
@@ -7356,28 +7356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1211.297796442525</v>
+        <v>1453.95369410549</v>
       </c>
       <c r="AB4" t="n">
-        <v>1657.351083779929</v>
+        <v>1989.363588185066</v>
       </c>
       <c r="AC4" t="n">
-        <v>1499.175822450828</v>
+        <v>1799.501519418014</v>
       </c>
       <c r="AD4" t="n">
-        <v>1211297.796442525</v>
+        <v>1453953.69410549</v>
       </c>
       <c r="AE4" t="n">
-        <v>1657351.083779929</v>
+        <v>1989363.588185065</v>
       </c>
       <c r="AF4" t="n">
         <v>3.343292595393832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.12731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>1499175.822450828</v>
+        <v>1799501.519418014</v>
       </c>
     </row>
     <row r="5">
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1116.706748945329</v>
+        <v>1359.361635578437</v>
       </c>
       <c r="AB5" t="n">
-        <v>1527.92743953177</v>
+        <v>1859.938560601253</v>
       </c>
       <c r="AC5" t="n">
-        <v>1382.104189162488</v>
+        <v>1682.428634817633</v>
       </c>
       <c r="AD5" t="n">
-        <v>1116706.748945329</v>
+        <v>1359361.635578437</v>
       </c>
       <c r="AE5" t="n">
-        <v>1527927.439531771</v>
+        <v>1859938.560601253</v>
       </c>
       <c r="AF5" t="n">
         <v>3.502131572316614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.84722222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>1382104.189162487</v>
+        <v>1682428.634817633</v>
       </c>
     </row>
     <row r="6">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1062.39334268496</v>
+        <v>1295.373466038021</v>
       </c>
       <c r="AB6" t="n">
-        <v>1453.613440947959</v>
+        <v>1772.38712407725</v>
       </c>
       <c r="AC6" t="n">
-        <v>1314.882614303163</v>
+        <v>1603.232984516269</v>
       </c>
       <c r="AD6" t="n">
-        <v>1062393.34268496</v>
+        <v>1295373.466038021</v>
       </c>
       <c r="AE6" t="n">
-        <v>1453613.440947959</v>
+        <v>1772387.12407725</v>
       </c>
       <c r="AF6" t="n">
         <v>3.603052964217415e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.5162037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1314882.614303163</v>
+        <v>1603232.984516269</v>
       </c>
     </row>
     <row r="7">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1018.822449275615</v>
+        <v>1251.768407209896</v>
       </c>
       <c r="AB7" t="n">
-        <v>1393.99782237314</v>
+        <v>1712.724758869183</v>
       </c>
       <c r="AC7" t="n">
-        <v>1260.956626694078</v>
+        <v>1549.264711707004</v>
       </c>
       <c r="AD7" t="n">
-        <v>1018822.449275615</v>
+        <v>1251768.407209896</v>
       </c>
       <c r="AE7" t="n">
-        <v>1393997.82237314</v>
+        <v>1712724.758869183</v>
       </c>
       <c r="AF7" t="n">
         <v>3.665893543966265e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.71759259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>1260956.626694078</v>
+        <v>1549264.711707004</v>
       </c>
     </row>
     <row r="8">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>992.3085725157689</v>
+        <v>1215.512447362299</v>
       </c>
       <c r="AB8" t="n">
-        <v>1357.72036648063</v>
+        <v>1663.11775510564</v>
       </c>
       <c r="AC8" t="n">
-        <v>1228.14144027622</v>
+        <v>1504.392130758786</v>
       </c>
       <c r="AD8" t="n">
-        <v>992308.5725157689</v>
+        <v>1215512.447362299</v>
       </c>
       <c r="AE8" t="n">
-        <v>1357720.366480629</v>
+        <v>1663117.75510564</v>
       </c>
       <c r="AF8" t="n">
         <v>3.705422295743766e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.23148148148147</v>
       </c>
       <c r="AH8" t="n">
-        <v>1228141.44027622</v>
+        <v>1504392.130758786</v>
       </c>
     </row>
     <row r="9">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>992.4272783482974</v>
+        <v>1215.631153194828</v>
       </c>
       <c r="AB9" t="n">
-        <v>1357.882785037626</v>
+        <v>1663.280173662637</v>
       </c>
       <c r="AC9" t="n">
-        <v>1228.288357834093</v>
+        <v>1504.539048316659</v>
       </c>
       <c r="AD9" t="n">
-        <v>992427.2783482973</v>
+        <v>1215631.153194828</v>
       </c>
       <c r="AE9" t="n">
-        <v>1357882.785037627</v>
+        <v>1663280.173662637</v>
       </c>
       <c r="AF9" t="n">
         <v>3.7078837931072e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.19675925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>1228288.357834093</v>
+        <v>1504539.048316659</v>
       </c>
     </row>
   </sheetData>
@@ -8183,28 +8183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>793.8745437167697</v>
+        <v>1023.511017568497</v>
       </c>
       <c r="AB2" t="n">
-        <v>1086.214173986335</v>
+        <v>1400.412928356495</v>
       </c>
       <c r="AC2" t="n">
-        <v>982.5474177322467</v>
+        <v>1266.75948396604</v>
       </c>
       <c r="AD2" t="n">
-        <v>793874.5437167697</v>
+        <v>1023511.017568497</v>
       </c>
       <c r="AE2" t="n">
-        <v>1086214.173986335</v>
+        <v>1400412.928356495</v>
       </c>
       <c r="AF2" t="n">
         <v>6.12436172403717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.05092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>982547.4177322467</v>
+        <v>1266759.48396604</v>
       </c>
     </row>
     <row r="3">
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>797.7531933233873</v>
+        <v>1027.389667175114</v>
       </c>
       <c r="AB3" t="n">
-        <v>1091.521113492053</v>
+        <v>1405.719867862214</v>
       </c>
       <c r="AC3" t="n">
-        <v>987.3478703798754</v>
+        <v>1271.559936613669</v>
       </c>
       <c r="AD3" t="n">
-        <v>797753.1933233873</v>
+        <v>1027389.667175114</v>
       </c>
       <c r="AE3" t="n">
-        <v>1091521.113492053</v>
+        <v>1405719.867862213</v>
       </c>
       <c r="AF3" t="n">
         <v>6.123842622348405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.05092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>987347.8703798754</v>
+        <v>1271559.936613669</v>
       </c>
     </row>
   </sheetData>
@@ -8586,28 +8586,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1613.464194249745</v>
+        <v>1929.848673689535</v>
       </c>
       <c r="AB2" t="n">
-        <v>2207.612891589047</v>
+        <v>2640.504094256702</v>
       </c>
       <c r="AC2" t="n">
-        <v>1996.921415619941</v>
+        <v>2388.498089471613</v>
       </c>
       <c r="AD2" t="n">
-        <v>1613464.194249745</v>
+        <v>1929848.673689535</v>
       </c>
       <c r="AE2" t="n">
-        <v>2207612.891589047</v>
+        <v>2640504.094256701</v>
       </c>
       <c r="AF2" t="n">
         <v>2.89300766100814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.54861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1996921.415619941</v>
+        <v>2388498.089471613</v>
       </c>
     </row>
     <row r="3">
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1158.347313646515</v>
+        <v>1407.545366793449</v>
       </c>
       <c r="AB3" t="n">
-        <v>1584.901897207994</v>
+        <v>1925.865667365828</v>
       </c>
       <c r="AC3" t="n">
-        <v>1433.641084562246</v>
+        <v>1742.063751041873</v>
       </c>
       <c r="AD3" t="n">
-        <v>1158347.313646515</v>
+        <v>1407545.366793449</v>
       </c>
       <c r="AE3" t="n">
-        <v>1584901.897207994</v>
+        <v>1925865.667365828</v>
       </c>
       <c r="AF3" t="n">
         <v>3.639694374250327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.30787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1433641.084562246</v>
+        <v>1742063.751041873</v>
       </c>
     </row>
     <row r="4">
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1026.574317138068</v>
+        <v>1266.217080890332</v>
       </c>
       <c r="AB4" t="n">
-        <v>1404.604269970821</v>
+        <v>1732.494071629251</v>
       </c>
       <c r="AC4" t="n">
-        <v>1270.55080981928</v>
+        <v>1567.147269003656</v>
       </c>
       <c r="AD4" t="n">
-        <v>1026574.317138068</v>
+        <v>1266217.080890332</v>
       </c>
       <c r="AE4" t="n">
-        <v>1404604.269970821</v>
+        <v>1732494.071629251</v>
       </c>
       <c r="AF4" t="n">
         <v>3.914296964124615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.70833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1270550.80981928</v>
+        <v>1567147.269003656</v>
       </c>
     </row>
     <row r="5">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>951.6926175928015</v>
+        <v>1181.746937561473</v>
       </c>
       <c r="AB5" t="n">
-        <v>1302.147825105557</v>
+        <v>1616.91829496699</v>
       </c>
       <c r="AC5" t="n">
-        <v>1177.872664253433</v>
+        <v>1462.60188225442</v>
       </c>
       <c r="AD5" t="n">
-        <v>951692.6175928016</v>
+        <v>1181746.937561473</v>
       </c>
       <c r="AE5" t="n">
-        <v>1302147.825105557</v>
+        <v>1616918.29496699</v>
       </c>
       <c r="AF5" t="n">
         <v>4.061924090878418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.97222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1177872.664253433</v>
+        <v>1462601.88225442</v>
       </c>
     </row>
     <row r="6">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>926.5337851015511</v>
+        <v>1146.966506897706</v>
       </c>
       <c r="AB6" t="n">
-        <v>1267.724400561674</v>
+        <v>1569.330175328516</v>
       </c>
       <c r="AC6" t="n">
-        <v>1146.734563034438</v>
+        <v>1419.555505963896</v>
       </c>
       <c r="AD6" t="n">
-        <v>926533.7851015511</v>
+        <v>1146966.506897706</v>
       </c>
       <c r="AE6" t="n">
-        <v>1267724.400561674</v>
+        <v>1569330.175328516</v>
       </c>
       <c r="AF6" t="n">
         <v>4.111778497618228e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.41666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1146734.563034438</v>
+        <v>1419555.505963896</v>
       </c>
     </row>
     <row r="7">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>926.4269074069628</v>
+        <v>1146.859629203118</v>
       </c>
       <c r="AB7" t="n">
-        <v>1267.578165784827</v>
+        <v>1569.183940551669</v>
       </c>
       <c r="AC7" t="n">
-        <v>1146.602284699451</v>
+        <v>1419.423227628909</v>
       </c>
       <c r="AD7" t="n">
-        <v>926426.9074069627</v>
+        <v>1146859.629203118</v>
       </c>
       <c r="AE7" t="n">
-        <v>1267578.165784827</v>
+        <v>1569183.940551669</v>
       </c>
       <c r="AF7" t="n">
         <v>4.12129762382421e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1146602.284699451</v>
+        <v>1419423.22762891</v>
       </c>
     </row>
   </sheetData>
@@ -9413,28 +9413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1837.231222756893</v>
+        <v>2184.567982104028</v>
       </c>
       <c r="AB2" t="n">
-        <v>2513.7808118971</v>
+        <v>2989.022289452201</v>
       </c>
       <c r="AC2" t="n">
-        <v>2273.869099323169</v>
+        <v>2703.754197266014</v>
       </c>
       <c r="AD2" t="n">
-        <v>1837231.222756893</v>
+        <v>2184567.982104029</v>
       </c>
       <c r="AE2" t="n">
-        <v>2513780.8118971</v>
+        <v>2989022.289452201</v>
       </c>
       <c r="AF2" t="n">
         <v>2.559568729584109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.86574074074075</v>
       </c>
       <c r="AH2" t="n">
-        <v>2273869.099323169</v>
+        <v>2703754.197266014</v>
       </c>
     </row>
     <row r="3">
@@ -9519,28 +9519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1273.76129183752</v>
+        <v>1534.239248313643</v>
       </c>
       <c r="AB3" t="n">
-        <v>1742.816393874291</v>
+        <v>2099.213825401334</v>
       </c>
       <c r="AC3" t="n">
-        <v>1576.484443301099</v>
+        <v>1898.867804170139</v>
       </c>
       <c r="AD3" t="n">
-        <v>1273761.29183752</v>
+        <v>1534239.248313644</v>
       </c>
       <c r="AE3" t="n">
-        <v>1742816.393874291</v>
+        <v>2099213.825401335</v>
       </c>
       <c r="AF3" t="n">
         <v>3.314936189495882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.1712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1576484.443301099</v>
+        <v>1898867.804170139</v>
       </c>
     </row>
     <row r="4">
@@ -9625,28 +9625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1115.11204820507</v>
+        <v>1365.937903217906</v>
       </c>
       <c r="AB4" t="n">
-        <v>1525.745499625716</v>
+        <v>1868.936500110026</v>
       </c>
       <c r="AC4" t="n">
-        <v>1380.130490538695</v>
+        <v>1690.567823608377</v>
       </c>
       <c r="AD4" t="n">
-        <v>1115112.04820507</v>
+        <v>1365937.903217906</v>
       </c>
       <c r="AE4" t="n">
-        <v>1525745.499625716</v>
+        <v>1868936.500110026</v>
       </c>
       <c r="AF4" t="n">
         <v>3.602920033587246e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.92361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1380130.490538695</v>
+        <v>1690567.823608377</v>
       </c>
     </row>
     <row r="5">
@@ -9731,28 +9731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1035.348692544279</v>
+        <v>1276.523457123686</v>
       </c>
       <c r="AB5" t="n">
-        <v>1416.609757499723</v>
+        <v>1746.595710276954</v>
       </c>
       <c r="AC5" t="n">
-        <v>1281.410510468231</v>
+        <v>1579.903067050597</v>
       </c>
       <c r="AD5" t="n">
-        <v>1035348.692544279</v>
+        <v>1276523.457123686</v>
       </c>
       <c r="AE5" t="n">
-        <v>1416609.757499723</v>
+        <v>1746595.710276954</v>
       </c>
       <c r="AF5" t="n">
         <v>3.758257696714264e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.89814814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>1281410.510468231</v>
+        <v>1579903.067050597</v>
       </c>
     </row>
     <row r="6">
@@ -9837,28 +9837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000.321565699488</v>
+        <v>1222.229325860673</v>
       </c>
       <c r="AB6" t="n">
-        <v>1368.684097262904</v>
+        <v>1672.30808459488</v>
       </c>
       <c r="AC6" t="n">
-        <v>1238.058807980327</v>
+        <v>1512.705348100282</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000321.565699488</v>
+        <v>1222229.325860673</v>
       </c>
       <c r="AE6" t="n">
-        <v>1368684.097262904</v>
+        <v>1672308.08459488</v>
       </c>
       <c r="AF6" t="n">
         <v>3.829530271560778e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.0300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1238058.807980327</v>
+        <v>1512705.348100282</v>
       </c>
     </row>
     <row r="7">
@@ -9943,28 +9943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>958.9902791450046</v>
+        <v>1180.863873887408</v>
       </c>
       <c r="AB7" t="n">
-        <v>1312.132807591387</v>
+        <v>1615.710048290114</v>
       </c>
       <c r="AC7" t="n">
-        <v>1186.904694024826</v>
+        <v>1461.5089489446</v>
       </c>
       <c r="AD7" t="n">
-        <v>958990.2791450046</v>
+        <v>1180863.873887408</v>
       </c>
       <c r="AE7" t="n">
-        <v>1312132.807591387</v>
+        <v>1615710.048290114</v>
       </c>
       <c r="AF7" t="n">
         <v>3.893797422383916e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.2662037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1186904.694024826</v>
+        <v>1461508.9489446</v>
       </c>
     </row>
     <row r="8">
@@ -10049,28 +10049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>959.4482797586988</v>
+        <v>1181.321874501103</v>
       </c>
       <c r="AB8" t="n">
-        <v>1312.759464236604</v>
+        <v>1616.336704935332</v>
       </c>
       <c r="AC8" t="n">
-        <v>1187.471543439342</v>
+        <v>1462.075798359116</v>
       </c>
       <c r="AD8" t="n">
-        <v>959448.2797586989</v>
+        <v>1181321.874501103</v>
       </c>
       <c r="AE8" t="n">
-        <v>1312759.464236604</v>
+        <v>1616336.704935332</v>
       </c>
       <c r="AF8" t="n">
         <v>3.898518469008365e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.20833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1187471.543439342</v>
+        <v>1462075.798359116</v>
       </c>
     </row>
   </sheetData>
@@ -10346,28 +10346,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2377.175413716037</v>
+        <v>2777.349151507313</v>
       </c>
       <c r="AB2" t="n">
-        <v>3252.556274624115</v>
+        <v>3800.091637089496</v>
       </c>
       <c r="AC2" t="n">
-        <v>2942.136868765269</v>
+        <v>3437.416224707641</v>
       </c>
       <c r="AD2" t="n">
-        <v>2377175.413716037</v>
+        <v>2777349.151507313</v>
       </c>
       <c r="AE2" t="n">
-        <v>3252556.274624115</v>
+        <v>3800091.637089496</v>
       </c>
       <c r="AF2" t="n">
         <v>2.035918799775216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.70370370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>2942136.868765269</v>
+        <v>3437416.224707641</v>
       </c>
     </row>
     <row r="3">
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1497.479095525972</v>
+        <v>1790.261648572766</v>
       </c>
       <c r="AB3" t="n">
-        <v>2048.916962613759</v>
+        <v>2449.51496834701</v>
       </c>
       <c r="AC3" t="n">
-        <v>1853.371203374919</v>
+        <v>2215.736697683821</v>
       </c>
       <c r="AD3" t="n">
-        <v>1497479.095525972</v>
+        <v>1790261.648572766</v>
       </c>
       <c r="AE3" t="n">
-        <v>2048916.962613759</v>
+        <v>2449514.96834701</v>
       </c>
       <c r="AF3" t="n">
         <v>2.817420338244623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1853371.203374919</v>
+        <v>2215736.697683821</v>
       </c>
     </row>
     <row r="4">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1299.173814811481</v>
+        <v>1552.906038981046</v>
       </c>
       <c r="AB4" t="n">
-        <v>1777.586928928652</v>
+        <v>2124.754551913159</v>
       </c>
       <c r="AC4" t="n">
-        <v>1607.936527290625</v>
+        <v>1921.970959590309</v>
       </c>
       <c r="AD4" t="n">
-        <v>1299173.814811481</v>
+        <v>1552906.038981046</v>
       </c>
       <c r="AE4" t="n">
-        <v>1777586.928928652</v>
+        <v>2124754.551913159</v>
       </c>
       <c r="AF4" t="n">
         <v>3.116869023401279e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.41203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1607936.527290625</v>
+        <v>1921970.959590309</v>
       </c>
     </row>
     <row r="5">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1197.446253678833</v>
+        <v>1451.177466818541</v>
       </c>
       <c r="AB5" t="n">
-        <v>1638.398791883707</v>
+        <v>1985.565031532559</v>
       </c>
       <c r="AC5" t="n">
-        <v>1482.032310693472</v>
+        <v>1796.065491681115</v>
       </c>
       <c r="AD5" t="n">
-        <v>1197446.253678833</v>
+        <v>1451177.466818542</v>
       </c>
       <c r="AE5" t="n">
-        <v>1638398.791883707</v>
+        <v>1985565.031532559</v>
       </c>
       <c r="AF5" t="n">
         <v>3.278568544558457e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.87731481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>1482032.310693472</v>
+        <v>1796065.491681115</v>
       </c>
     </row>
     <row r="6">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1138.827904326702</v>
+        <v>1373.034458542725</v>
       </c>
       <c r="AB6" t="n">
-        <v>1558.194580241062</v>
+        <v>1878.646320183368</v>
       </c>
       <c r="AC6" t="n">
-        <v>1409.482676442683</v>
+        <v>1699.350952081738</v>
       </c>
       <c r="AD6" t="n">
-        <v>1138827.904326702</v>
+        <v>1373034.458542725</v>
       </c>
       <c r="AE6" t="n">
-        <v>1558194.580241062</v>
+        <v>1878646.320183368</v>
       </c>
       <c r="AF6" t="n">
         <v>3.386275931082673e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.31481481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>1409482.676442683</v>
+        <v>1699350.952081738</v>
       </c>
     </row>
     <row r="7">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1100.059908315985</v>
+        <v>1334.333782339713</v>
       </c>
       <c r="AB7" t="n">
-        <v>1505.150497775924</v>
+        <v>1825.694347649072</v>
       </c>
       <c r="AC7" t="n">
-        <v>1361.501046760181</v>
+        <v>1651.452641487554</v>
       </c>
       <c r="AD7" t="n">
-        <v>1100059.908315985</v>
+        <v>1334333.782339713</v>
       </c>
       <c r="AE7" t="n">
-        <v>1505150.497775924</v>
+        <v>1825694.347649072</v>
       </c>
       <c r="AF7" t="n">
         <v>3.441514038053318e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1361501.046760181</v>
+        <v>1651452.641487554</v>
       </c>
     </row>
     <row r="8">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1056.513590325175</v>
+        <v>1290.753298930122</v>
       </c>
       <c r="AB8" t="n">
-        <v>1445.568504372935</v>
+        <v>1766.065607612835</v>
       </c>
       <c r="AC8" t="n">
-        <v>1307.60547518372</v>
+        <v>1597.514784710913</v>
       </c>
       <c r="AD8" t="n">
-        <v>1056513.590325175</v>
+        <v>1290753.298930122</v>
       </c>
       <c r="AE8" t="n">
-        <v>1445568.504372935</v>
+        <v>1766065.607612835</v>
       </c>
       <c r="AF8" t="n">
         <v>3.501182268891283e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.76388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1307605.47518372</v>
+        <v>1597514.784710913</v>
       </c>
     </row>
     <row r="9">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1028.593052412176</v>
+        <v>1253.036771651428</v>
       </c>
       <c r="AB9" t="n">
-        <v>1407.36639263317</v>
+        <v>1714.460191054377</v>
       </c>
       <c r="AC9" t="n">
-        <v>1273.049319371398</v>
+        <v>1550.834516680137</v>
       </c>
       <c r="AD9" t="n">
-        <v>1028593.052412176</v>
+        <v>1253036.771651428</v>
       </c>
       <c r="AE9" t="n">
-        <v>1407366.39263317</v>
+        <v>1714460.191054377</v>
       </c>
       <c r="AF9" t="n">
         <v>3.543406887001677e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.21990740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>1273049.319371398</v>
+        <v>1550834.516680137</v>
       </c>
     </row>
     <row r="10">
@@ -11194,28 +11194,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1020.978033161657</v>
+        <v>1245.421752400909</v>
       </c>
       <c r="AB10" t="n">
-        <v>1396.947187343671</v>
+        <v>1704.040985764877</v>
       </c>
       <c r="AC10" t="n">
-        <v>1263.624508411282</v>
+        <v>1541.409705720021</v>
       </c>
       <c r="AD10" t="n">
-        <v>1020978.033161657</v>
+        <v>1245421.752400909</v>
       </c>
       <c r="AE10" t="n">
-        <v>1396947.187343671</v>
+        <v>1704040.985764877</v>
       </c>
       <c r="AF10" t="n">
         <v>3.554205313928269e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.08101851851853</v>
       </c>
       <c r="AH10" t="n">
-        <v>1263624.508411282</v>
+        <v>1541409.705720021</v>
       </c>
     </row>
     <row r="11">
@@ -11300,28 +11300,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1023.540539781603</v>
+        <v>1247.984259020856</v>
       </c>
       <c r="AB11" t="n">
-        <v>1400.453321950896</v>
+        <v>1707.547120372102</v>
       </c>
       <c r="AC11" t="n">
-        <v>1266.796022452484</v>
+        <v>1544.581219761224</v>
       </c>
       <c r="AD11" t="n">
-        <v>1023540.539781603</v>
+        <v>1247984.259020856</v>
       </c>
       <c r="AE11" t="n">
-        <v>1400453.321950896</v>
+        <v>1707547.120372102</v>
       </c>
       <c r="AF11" t="n">
         <v>3.554205313928269e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.08101851851853</v>
       </c>
       <c r="AH11" t="n">
-        <v>1266796.022452484</v>
+        <v>1544581.219761224</v>
       </c>
     </row>
   </sheetData>
@@ -11597,28 +11597,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1405.799780817709</v>
+        <v>1700.776131837831</v>
       </c>
       <c r="AB2" t="n">
-        <v>1923.477279624002</v>
+        <v>2327.076936527897</v>
       </c>
       <c r="AC2" t="n">
-        <v>1739.903307674004</v>
+        <v>2104.983979778668</v>
       </c>
       <c r="AD2" t="n">
-        <v>1405799.780817709</v>
+        <v>1700776.131837831</v>
       </c>
       <c r="AE2" t="n">
-        <v>1923477.279624002</v>
+        <v>2327076.936527897</v>
       </c>
       <c r="AF2" t="n">
         <v>3.302464501086666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.48611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1739903.307674004</v>
+        <v>2104983.979778667</v>
       </c>
     </row>
     <row r="3">
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1046.773739705292</v>
+        <v>1294.218700587088</v>
       </c>
       <c r="AB3" t="n">
-        <v>1432.242011062928</v>
+        <v>1770.807123042627</v>
       </c>
       <c r="AC3" t="n">
-        <v>1295.550843691369</v>
+        <v>1601.803776562844</v>
       </c>
       <c r="AD3" t="n">
-        <v>1046773.739705292</v>
+        <v>1294218.700587088</v>
       </c>
       <c r="AE3" t="n">
-        <v>1432242.011062928</v>
+        <v>1770807.123042627</v>
       </c>
       <c r="AF3" t="n">
         <v>4.026297065369786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.61805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1295550.843691369</v>
+        <v>1601803.776562844</v>
       </c>
     </row>
     <row r="4">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>935.8535075674108</v>
+        <v>1164.293149889576</v>
       </c>
       <c r="AB4" t="n">
-        <v>1280.4760559966</v>
+        <v>1593.037252667532</v>
       </c>
       <c r="AC4" t="n">
-        <v>1158.269218371715</v>
+        <v>1441.000013114768</v>
       </c>
       <c r="AD4" t="n">
-        <v>935853.5075674108</v>
+        <v>1164293.149889576</v>
       </c>
       <c r="AE4" t="n">
-        <v>1280476.0559966</v>
+        <v>1593037.252667532</v>
       </c>
       <c r="AF4" t="n">
         <v>4.293807908154438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.52777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1158269.218371715</v>
+        <v>1441000.013114768</v>
       </c>
     </row>
     <row r="5">
@@ -11915,28 +11915,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>893.1712725732474</v>
+        <v>1121.576749476631</v>
       </c>
       <c r="AB5" t="n">
-        <v>1222.076339070273</v>
+        <v>1534.590789107958</v>
       </c>
       <c r="AC5" t="n">
-        <v>1105.44308846432</v>
+        <v>1388.131598007193</v>
       </c>
       <c r="AD5" t="n">
-        <v>893171.2725732474</v>
+        <v>1121576.749476631</v>
       </c>
       <c r="AE5" t="n">
-        <v>1222076.339070273</v>
+        <v>1534590.789107958</v>
       </c>
       <c r="AF5" t="n">
         <v>4.378721027283503e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.61342592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1105443.08846432</v>
+        <v>1388131.598007193</v>
       </c>
     </row>
     <row r="6">
@@ -12021,28 +12021,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>895.3410798420431</v>
+        <v>1123.746556745427</v>
       </c>
       <c r="AB6" t="n">
-        <v>1225.045165100581</v>
+        <v>1537.559615138265</v>
       </c>
       <c r="AC6" t="n">
-        <v>1108.128573905068</v>
+        <v>1390.817083447942</v>
       </c>
       <c r="AD6" t="n">
-        <v>895341.0798420431</v>
+        <v>1123746.556745427</v>
       </c>
       <c r="AE6" t="n">
-        <v>1225045.165100581</v>
+        <v>1537559.615138265</v>
       </c>
       <c r="AF6" t="n">
         <v>4.380792078969576e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.60185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1108128.573905068</v>
+        <v>1390817.083447942</v>
       </c>
     </row>
   </sheetData>
@@ -12318,28 +12318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1119.359402590835</v>
+        <v>1391.88397402525</v>
       </c>
       <c r="AB2" t="n">
-        <v>1531.55691727637</v>
+        <v>1904.437058848492</v>
       </c>
       <c r="AC2" t="n">
-        <v>1385.387274645147</v>
+        <v>1722.680258846191</v>
       </c>
       <c r="AD2" t="n">
-        <v>1119359.402590835</v>
+        <v>1391883.97402525</v>
       </c>
       <c r="AE2" t="n">
-        <v>1531556.91727637</v>
+        <v>1904437.058848492</v>
       </c>
       <c r="AF2" t="n">
         <v>4.136825312770154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.90740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1385387.274645147</v>
+        <v>1722680.258846191</v>
       </c>
     </row>
     <row r="3">
@@ -12424,28 +12424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>883.5890153240878</v>
+        <v>1109.109930945126</v>
       </c>
       <c r="AB3" t="n">
-        <v>1208.965471962619</v>
+        <v>1517.533137995935</v>
       </c>
       <c r="AC3" t="n">
-        <v>1093.583504112203</v>
+        <v>1372.701905176739</v>
       </c>
       <c r="AD3" t="n">
-        <v>883589.0153240878</v>
+        <v>1109109.930945126</v>
       </c>
       <c r="AE3" t="n">
-        <v>1208965.471962619</v>
+        <v>1517533.137995936</v>
       </c>
       <c r="AF3" t="n">
         <v>4.818577264220036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.1412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1093583.504112203</v>
+        <v>1372701.905176739</v>
       </c>
     </row>
     <row r="4">
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>850.3605582484956</v>
+        <v>1075.847308450753</v>
       </c>
       <c r="AB4" t="n">
-        <v>1163.500831055728</v>
+        <v>1472.021750455797</v>
       </c>
       <c r="AC4" t="n">
-        <v>1052.457944723441</v>
+        <v>1331.534060587798</v>
       </c>
       <c r="AD4" t="n">
-        <v>850360.5582484957</v>
+        <v>1075847.308450753</v>
       </c>
       <c r="AE4" t="n">
-        <v>1163500.831055728</v>
+        <v>1472021.750455797</v>
       </c>
       <c r="AF4" t="n">
         <v>4.909045787426253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.27314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1052457.944723441</v>
+        <v>1331534.060587798</v>
       </c>
     </row>
   </sheetData>
@@ -22464,28 +22464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>944.0490859710294</v>
+        <v>1185.902753603504</v>
       </c>
       <c r="AB2" t="n">
-        <v>1291.689607931832</v>
+        <v>1622.60446581736</v>
       </c>
       <c r="AC2" t="n">
-        <v>1168.412564648568</v>
+        <v>1467.745372939422</v>
       </c>
       <c r="AD2" t="n">
-        <v>944049.0859710294</v>
+        <v>1185902.753603504</v>
       </c>
       <c r="AE2" t="n">
-        <v>1291689.607931832</v>
+        <v>1622604.46581736</v>
       </c>
       <c r="AF2" t="n">
         <v>4.967381423047258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.35416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1168412.564648568</v>
+        <v>1467745.372939422</v>
       </c>
     </row>
     <row r="3">
@@ -22570,28 +22570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>820.4865314896102</v>
+        <v>1043.72826428678</v>
       </c>
       <c r="AB3" t="n">
-        <v>1122.625869695176</v>
+        <v>1428.075057238427</v>
       </c>
       <c r="AC3" t="n">
-        <v>1015.484032306772</v>
+        <v>1291.781578091522</v>
       </c>
       <c r="AD3" t="n">
-        <v>820486.5314896102</v>
+        <v>1043728.26428678</v>
       </c>
       <c r="AE3" t="n">
-        <v>1122625.869695176</v>
+        <v>1428075.057238427</v>
       </c>
       <c r="AF3" t="n">
         <v>5.411247885002854e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.1412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1015484.032306772</v>
+        <v>1291781.578091522</v>
       </c>
     </row>
   </sheetData>
@@ -22867,28 +22867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>787.4488283000586</v>
+        <v>1024.407944830486</v>
       </c>
       <c r="AB2" t="n">
-        <v>1077.422226670634</v>
+        <v>1401.640143805987</v>
       </c>
       <c r="AC2" t="n">
-        <v>974.5945615287804</v>
+        <v>1267.86957569544</v>
       </c>
       <c r="AD2" t="n">
-        <v>787448.8283000586</v>
+        <v>1024407.944830486</v>
       </c>
       <c r="AE2" t="n">
-        <v>1077422.226670634</v>
+        <v>1401640.143805987</v>
       </c>
       <c r="AF2" t="n">
         <v>6.60742039709829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.06481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>974594.5615287805</v>
+        <v>1267869.57569544</v>
       </c>
     </row>
   </sheetData>
@@ -23164,28 +23164,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1721.634173334896</v>
+        <v>2048.6948044515</v>
       </c>
       <c r="AB2" t="n">
-        <v>2355.615829096029</v>
+        <v>2803.114613486471</v>
       </c>
       <c r="AC2" t="n">
-        <v>2130.799160494684</v>
+        <v>2535.58928897139</v>
       </c>
       <c r="AD2" t="n">
-        <v>1721634.173334896</v>
+        <v>2048694.8044515</v>
       </c>
       <c r="AE2" t="n">
-        <v>2355615.829096029</v>
+        <v>2803114.613486471</v>
       </c>
       <c r="AF2" t="n">
         <v>2.72043041125444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.62037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2130799.160494684</v>
+        <v>2535589.28897139</v>
       </c>
     </row>
     <row r="3">
@@ -23270,28 +23270,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1216.696090271063</v>
+        <v>1476.312189815661</v>
       </c>
       <c r="AB3" t="n">
-        <v>1664.73726755205</v>
+        <v>2019.955468402937</v>
       </c>
       <c r="AC3" t="n">
-        <v>1505.857079210311</v>
+        <v>1827.173753523865</v>
       </c>
       <c r="AD3" t="n">
-        <v>1216696.090271063</v>
+        <v>1476312.189815661</v>
       </c>
       <c r="AE3" t="n">
-        <v>1664737.26755205</v>
+        <v>2019955.468402937</v>
       </c>
       <c r="AF3" t="n">
         <v>3.467519197997947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.26851851851851</v>
       </c>
       <c r="AH3" t="n">
-        <v>1505857.079210311</v>
+        <v>1827173.753523865</v>
       </c>
     </row>
     <row r="4">
@@ -23376,28 +23376,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1076.381571611037</v>
+        <v>1316.756800771201</v>
       </c>
       <c r="AB4" t="n">
-        <v>1472.752752881724</v>
+        <v>1801.644746025336</v>
       </c>
       <c r="AC4" t="n">
-        <v>1332.195297168163</v>
+        <v>1629.698300088959</v>
       </c>
       <c r="AD4" t="n">
-        <v>1076381.571611037</v>
+        <v>1316756.800771201</v>
       </c>
       <c r="AE4" t="n">
-        <v>1472752.752881724</v>
+        <v>1801644.746025336</v>
       </c>
       <c r="AF4" t="n">
         <v>3.749223814923448e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.34490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1332195.297168163</v>
+        <v>1629698.300088959</v>
       </c>
     </row>
     <row r="5">
@@ -23482,28 +23482,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>998.88656211667</v>
+        <v>1229.641356084617</v>
       </c>
       <c r="AB5" t="n">
-        <v>1366.720662053002</v>
+        <v>1682.449551342975</v>
       </c>
       <c r="AC5" t="n">
-        <v>1236.28276027116</v>
+        <v>1521.878927495577</v>
       </c>
       <c r="AD5" t="n">
-        <v>998886.56211667</v>
+        <v>1229641.356084617</v>
       </c>
       <c r="AE5" t="n">
-        <v>1366720.662053002</v>
+        <v>1682449.551342975</v>
       </c>
       <c r="AF5" t="n">
         <v>3.902994762016746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.43518518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>1236282.760271159</v>
+        <v>1521878.927495577</v>
       </c>
     </row>
     <row r="6">
@@ -23588,28 +23588,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>949.747599158698</v>
+        <v>1170.916123353208</v>
       </c>
       <c r="AB6" t="n">
-        <v>1299.486565075859</v>
+        <v>1602.099097145442</v>
       </c>
       <c r="AC6" t="n">
-        <v>1175.465391145867</v>
+        <v>1449.197007874086</v>
       </c>
       <c r="AD6" t="n">
-        <v>949747.599158698</v>
+        <v>1170916.123353208</v>
       </c>
       <c r="AE6" t="n">
-        <v>1299486.565075859</v>
+        <v>1602099.097145442</v>
       </c>
       <c r="AF6" t="n">
         <v>3.98614381792972e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.46296296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>1175465.391145867</v>
+        <v>1449197.007874086</v>
       </c>
     </row>
     <row r="7">
@@ -23694,28 +23694,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>942.2473388706507</v>
+        <v>1163.415863065161</v>
       </c>
       <c r="AB7" t="n">
-        <v>1289.224378061621</v>
+        <v>1591.836910131204</v>
       </c>
       <c r="AC7" t="n">
-        <v>1166.182612857199</v>
+        <v>1439.914229585417</v>
       </c>
       <c r="AD7" t="n">
-        <v>942247.3388706506</v>
+        <v>1163415.863065161</v>
       </c>
       <c r="AE7" t="n">
-        <v>1289224.378061621</v>
+        <v>1591836.910131204</v>
       </c>
       <c r="AF7" t="n">
         <v>4.004151617232908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.2662037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1166182.612857199</v>
+        <v>1439914.229585417</v>
       </c>
     </row>
   </sheetData>
@@ -23991,28 +23991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2236.317351031119</v>
+        <v>2615.898523311289</v>
       </c>
       <c r="AB2" t="n">
-        <v>3059.82805903945</v>
+        <v>3579.187764892663</v>
       </c>
       <c r="AC2" t="n">
-        <v>2767.802363580263</v>
+        <v>3237.59510803275</v>
       </c>
       <c r="AD2" t="n">
-        <v>2236317.351031119</v>
+        <v>2615898.523311289</v>
       </c>
       <c r="AE2" t="n">
-        <v>3059828.05903945</v>
+        <v>3579187.764892663</v>
       </c>
       <c r="AF2" t="n">
         <v>2.152828185249509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.06481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2767802.363580263</v>
+        <v>3237595.10803275</v>
       </c>
     </row>
     <row r="3">
@@ -24097,28 +24097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1438.044940363978</v>
+        <v>1720.330144522255</v>
       </c>
       <c r="AB3" t="n">
-        <v>1967.596529471248</v>
+        <v>2353.831599344882</v>
       </c>
       <c r="AC3" t="n">
-        <v>1779.811878237585</v>
+        <v>2129.185215126804</v>
       </c>
       <c r="AD3" t="n">
-        <v>1438044.940363978</v>
+        <v>1720330.144522255</v>
       </c>
       <c r="AE3" t="n">
-        <v>1967596.529471248</v>
+        <v>2353831.599344882</v>
       </c>
       <c r="AF3" t="n">
         <v>2.927648240617653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1779811.878237585</v>
+        <v>2129185.215126804</v>
       </c>
     </row>
     <row r="4">
@@ -24203,28 +24203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1249.981295648257</v>
+        <v>1503.091678846434</v>
       </c>
       <c r="AB4" t="n">
-        <v>1710.27955398875</v>
+        <v>2056.596346722515</v>
       </c>
       <c r="AC4" t="n">
-        <v>1547.052873748493</v>
+        <v>1860.317677842419</v>
       </c>
       <c r="AD4" t="n">
-        <v>1249981.295648257</v>
+        <v>1503091.678846434</v>
       </c>
       <c r="AE4" t="n">
-        <v>1710279.55398875</v>
+        <v>2056596.346722515</v>
       </c>
       <c r="AF4" t="n">
         <v>3.226483148750874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.75231481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>1547052.873748493</v>
+        <v>1860317.677842419</v>
       </c>
     </row>
     <row r="5">
@@ -24309,28 +24309,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1161.078457160742</v>
+        <v>1404.351026339474</v>
       </c>
       <c r="AB5" t="n">
-        <v>1588.638768253708</v>
+        <v>1921.495029832344</v>
       </c>
       <c r="AC5" t="n">
-        <v>1437.021313880088</v>
+        <v>1738.110241020357</v>
       </c>
       <c r="AD5" t="n">
-        <v>1161078.457160742</v>
+        <v>1404351.026339474</v>
       </c>
       <c r="AE5" t="n">
-        <v>1588638.768253708</v>
+        <v>1921495.029832345</v>
       </c>
       <c r="AF5" t="n">
         <v>3.388493551124235e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1437021.313880089</v>
+        <v>1738110.241020357</v>
       </c>
     </row>
     <row r="6">
@@ -24415,28 +24415,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1095.550353566158</v>
+        <v>1338.856077133813</v>
       </c>
       <c r="AB6" t="n">
-        <v>1498.980326019696</v>
+        <v>1831.881950895926</v>
       </c>
       <c r="AC6" t="n">
-        <v>1355.919747536477</v>
+        <v>1657.049708564884</v>
       </c>
       <c r="AD6" t="n">
-        <v>1095550.353566158</v>
+        <v>1338856.077133813</v>
       </c>
       <c r="AE6" t="n">
-        <v>1498980.326019696</v>
+        <v>1831881.950895926</v>
       </c>
       <c r="AF6" t="n">
         <v>3.490793569391432e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.90972222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>1355919.747536476</v>
+        <v>1657049.708564884</v>
       </c>
     </row>
     <row r="7">
@@ -24521,28 +24521,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1063.070094176086</v>
+        <v>1286.93833660646</v>
       </c>
       <c r="AB7" t="n">
-        <v>1454.539402194288</v>
+        <v>1760.845807857342</v>
       </c>
       <c r="AC7" t="n">
-        <v>1315.720203107737</v>
+        <v>1592.793155318049</v>
       </c>
       <c r="AD7" t="n">
-        <v>1063070.094176086</v>
+        <v>1286938.33660646</v>
       </c>
       <c r="AE7" t="n">
-        <v>1454539.402194288</v>
+        <v>1760845.807857342</v>
       </c>
       <c r="AF7" t="n">
         <v>3.553192335720385e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.08796296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>1315720.203107737</v>
+        <v>1592793.155318049</v>
       </c>
     </row>
     <row r="8">
@@ -24627,28 +24627,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1020.454262688284</v>
+        <v>1244.288339699877</v>
       </c>
       <c r="AB8" t="n">
-        <v>1396.230541474881</v>
+        <v>1702.490200504687</v>
       </c>
       <c r="AC8" t="n">
-        <v>1262.97625821839</v>
+        <v>1540.006925228523</v>
       </c>
       <c r="AD8" t="n">
-        <v>1020454.262688284</v>
+        <v>1244288.339699877</v>
       </c>
       <c r="AE8" t="n">
-        <v>1396230.541474881</v>
+        <v>1702490.200504687</v>
       </c>
       <c r="AF8" t="n">
         <v>3.607384461579772e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.39351851851851</v>
       </c>
       <c r="AH8" t="n">
-        <v>1262976.25821839</v>
+        <v>1540006.925228523</v>
       </c>
     </row>
     <row r="9">
@@ -24733,28 +24733,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1006.518046233443</v>
+        <v>1230.352123245036</v>
       </c>
       <c r="AB9" t="n">
-        <v>1377.162395298889</v>
+        <v>1683.422054328695</v>
       </c>
       <c r="AC9" t="n">
-        <v>1245.727949151123</v>
+        <v>1522.758616161256</v>
       </c>
       <c r="AD9" t="n">
-        <v>1006518.046233443</v>
+        <v>1230352.123245036</v>
       </c>
       <c r="AE9" t="n">
-        <v>1377162.395298889</v>
+        <v>1683422.054328695</v>
       </c>
       <c r="AF9" t="n">
         <v>3.627193593747693e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.15046296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>1245727.949151123</v>
+        <v>1522758.616161256</v>
       </c>
     </row>
     <row r="10">
@@ -24839,28 +24839,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1008.931217121478</v>
+        <v>1232.76529413307</v>
       </c>
       <c r="AB10" t="n">
-        <v>1380.464202169484</v>
+        <v>1686.72386119929</v>
       </c>
       <c r="AC10" t="n">
-        <v>1248.714636208103</v>
+        <v>1525.745303218236</v>
       </c>
       <c r="AD10" t="n">
-        <v>1008931.217121477</v>
+        <v>1232765.29413307</v>
       </c>
       <c r="AE10" t="n">
-        <v>1380464.202169484</v>
+        <v>1686723.86119929</v>
       </c>
       <c r="AF10" t="n">
         <v>3.626203137139297e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.16203703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1248714.636208104</v>
+        <v>1525745.303218236</v>
       </c>
     </row>
   </sheetData>
@@ -25136,28 +25136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>797.0273956499242</v>
+        <v>1058.81947618674</v>
       </c>
       <c r="AB2" t="n">
-        <v>1090.528045095288</v>
+        <v>1448.723519137233</v>
       </c>
       <c r="AC2" t="n">
-        <v>986.4495790371168</v>
+        <v>1310.459379767004</v>
       </c>
       <c r="AD2" t="n">
-        <v>797027.3956499242</v>
+        <v>1058819.47618674</v>
       </c>
       <c r="AE2" t="n">
-        <v>1090528.045095288</v>
+        <v>1448723.519137233</v>
       </c>
       <c r="AF2" t="n">
         <v>7.136101600337291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.6712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>986449.5790371168</v>
+        <v>1310459.379767004</v>
       </c>
     </row>
   </sheetData>
@@ -25433,28 +25433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1213.971434055137</v>
+        <v>1497.16217361423</v>
       </c>
       <c r="AB2" t="n">
-        <v>1661.009272714071</v>
+        <v>2048.483336072506</v>
       </c>
       <c r="AC2" t="n">
-        <v>1502.484878967396</v>
+        <v>1852.978961542165</v>
       </c>
       <c r="AD2" t="n">
-        <v>1213971.434055137</v>
+        <v>1497162.17361423</v>
       </c>
       <c r="AE2" t="n">
-        <v>1661009.272714071</v>
+        <v>2048483.336072506</v>
       </c>
       <c r="AF2" t="n">
         <v>3.81425813948563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.78240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1502484.878967396</v>
+        <v>1852978.961542165</v>
       </c>
     </row>
     <row r="3">
@@ -25539,28 +25539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>931.9510962978799</v>
+        <v>1167.960461973182</v>
       </c>
       <c r="AB3" t="n">
-        <v>1275.136604735393</v>
+        <v>1598.055030850712</v>
       </c>
       <c r="AC3" t="n">
-        <v>1153.439356844911</v>
+        <v>1445.538901590642</v>
       </c>
       <c r="AD3" t="n">
-        <v>931951.0962978798</v>
+        <v>1167960.461973181</v>
       </c>
       <c r="AE3" t="n">
-        <v>1275136.604735393</v>
+        <v>1598055.030850712</v>
       </c>
       <c r="AF3" t="n">
         <v>4.521641898059651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.90509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1153439.356844911</v>
+        <v>1445538.901590642</v>
       </c>
     </row>
     <row r="4">
@@ -25645,28 +25645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>858.3470982401868</v>
+        <v>1084.913356054974</v>
       </c>
       <c r="AB4" t="n">
-        <v>1174.428367413638</v>
+        <v>1484.426316753684</v>
       </c>
       <c r="AC4" t="n">
-        <v>1062.342572348245</v>
+        <v>1342.754752488132</v>
       </c>
       <c r="AD4" t="n">
-        <v>858347.0982401868</v>
+        <v>1084913.356054974</v>
       </c>
       <c r="AE4" t="n">
-        <v>1174428.367413638</v>
+        <v>1484426.316753684</v>
       </c>
       <c r="AF4" t="n">
         <v>4.709716151331315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.9837962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1062342.572348245</v>
+        <v>1342754.752488132</v>
       </c>
     </row>
     <row r="5">
@@ -25751,28 +25751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>859.6184566519463</v>
+        <v>1086.184714466733</v>
       </c>
       <c r="AB5" t="n">
-        <v>1176.167896080982</v>
+        <v>1486.165845421028</v>
       </c>
       <c r="AC5" t="n">
-        <v>1063.916082841022</v>
+        <v>1344.328262980909</v>
       </c>
       <c r="AD5" t="n">
-        <v>859618.4566519463</v>
+        <v>1086184.714466733</v>
       </c>
       <c r="AE5" t="n">
-        <v>1176167.896080981</v>
+        <v>1486165.845421028</v>
       </c>
       <c r="AF5" t="n">
         <v>4.71645313950821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.92592592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1063916.082841021</v>
+        <v>1344328.262980909</v>
       </c>
     </row>
   </sheetData>
@@ -26048,28 +26048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1507.643884013694</v>
+        <v>1813.266567740338</v>
       </c>
       <c r="AB2" t="n">
-        <v>2062.824874661478</v>
+        <v>2480.991313657487</v>
       </c>
       <c r="AC2" t="n">
-        <v>1865.951763816681</v>
+        <v>2244.208984775194</v>
       </c>
       <c r="AD2" t="n">
-        <v>1507643.884013694</v>
+        <v>1813266.567740338</v>
       </c>
       <c r="AE2" t="n">
-        <v>2062824.874661478</v>
+        <v>2480991.313657487</v>
       </c>
       <c r="AF2" t="n">
         <v>3.08691884078278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.47685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1865951.763816681</v>
+        <v>2244208.984775194</v>
       </c>
     </row>
     <row r="3">
@@ -26154,28 +26154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1102.891879200887</v>
+        <v>1351.184875232798</v>
       </c>
       <c r="AB3" t="n">
-        <v>1509.025325278385</v>
+        <v>1848.750756363142</v>
       </c>
       <c r="AC3" t="n">
-        <v>1365.006066164161</v>
+        <v>1672.308578913826</v>
       </c>
       <c r="AD3" t="n">
-        <v>1102891.879200887</v>
+        <v>1351184.875232798</v>
       </c>
       <c r="AE3" t="n">
-        <v>1509025.325278385</v>
+        <v>1848750.756363142</v>
       </c>
       <c r="AF3" t="n">
         <v>3.821447221358785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.47453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1365006.066164161</v>
+        <v>1672308.578913826</v>
       </c>
     </row>
     <row r="4">
@@ -26260,28 +26260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>985.9750541976616</v>
+        <v>1215.192319750109</v>
       </c>
       <c r="AB4" t="n">
-        <v>1349.054567302687</v>
+        <v>1662.679742383607</v>
       </c>
       <c r="AC4" t="n">
-        <v>1220.302692809295</v>
+        <v>1503.99592135619</v>
       </c>
       <c r="AD4" t="n">
-        <v>985975.0541976616</v>
+        <v>1215192.319750109</v>
       </c>
       <c r="AE4" t="n">
-        <v>1349054.567302687</v>
+        <v>1662679.742383607</v>
       </c>
       <c r="AF4" t="n">
         <v>4.096062187599542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.08333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1220302.692809295</v>
+        <v>1503995.92135619</v>
       </c>
     </row>
     <row r="5">
@@ -26366,28 +26366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>909.7363846039636</v>
+        <v>1129.398702207289</v>
       </c>
       <c r="AB5" t="n">
-        <v>1244.741456151865</v>
+        <v>1545.293129914243</v>
       </c>
       <c r="AC5" t="n">
-        <v>1125.945078582336</v>
+        <v>1397.812522427756</v>
       </c>
       <c r="AD5" t="n">
-        <v>909736.3846039637</v>
+        <v>1129398.702207289</v>
       </c>
       <c r="AE5" t="n">
-        <v>1244741.456151865</v>
+        <v>1545293.129914243</v>
       </c>
       <c r="AF5" t="n">
         <v>4.249866564929772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.38194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1125945.078582336</v>
+        <v>1397812.522427756</v>
       </c>
     </row>
     <row r="6">
@@ -26472,28 +26472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>907.5055598096848</v>
+        <v>1127.16787741301</v>
       </c>
       <c r="AB6" t="n">
-        <v>1241.689143251288</v>
+        <v>1542.240817013666</v>
       </c>
       <c r="AC6" t="n">
-        <v>1123.184074141043</v>
+        <v>1395.051517986463</v>
       </c>
       <c r="AD6" t="n">
-        <v>907505.5598096848</v>
+        <v>1127167.87741301</v>
       </c>
       <c r="AE6" t="n">
-        <v>1241689.143251288</v>
+        <v>1542240.817013666</v>
       </c>
       <c r="AF6" t="n">
         <v>4.255032259076292e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.32407407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>1123184.074141043</v>
+        <v>1395051.517986463</v>
       </c>
     </row>
   </sheetData>
